--- a/1_1_Cálculo_Diferencial (1).xlsx
+++ b/1_1_Cálculo_Diferencial (1).xlsx
@@ -913,6 +913,92 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>155780</colOff>
+      <row>0</row>
+      <rowOff>81243</rowOff>
+    </from>
+    <to>
+      <col>1</col>
+      <colOff>618665</colOff>
+      <row>2</row>
+      <rowOff>706532</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Imagen 1"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="155780" y="81243"/>
+          <a:ext cx="1224885" cy="1196789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>316566</colOff>
+      <row>0</row>
+      <rowOff>379387</rowOff>
+    </from>
+    <ext cx="2093260" cy="611336"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="3 Imagen"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7269816" y="379387"/>
+          <a:ext cx="2093260" cy="611336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1211,7 +1297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2459,6 +2545,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
